--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_532.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_532.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32420-d502116-Reviews-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_532.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_532.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,574 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r483560014-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>32420</t>
+  </si>
+  <si>
+    <t>502116</t>
+  </si>
+  <si>
+    <t>483560014</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>unbelievable dog park</t>
+  </si>
+  <si>
+    <t>this was the first time i stayed here. we have stayed at many motel 6. the room we got had new updated room with micro/fridge. my dog loved the big dog park they have. the staff their was very friendly.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r466649486-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>466649486</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Cheap; value for the low price. Not the nicest part of towm, but not too bad.</t>
+  </si>
+  <si>
+    <t>To qualify, this rating is in the context of what a Motel 6 is: a functional, cost effective lodging facility. It is not upscale or expected to come with more than the basics. In this role, it achieves what it sets out to do admirably. The people who ran the hotel were professional and cared about doing a good job for their customers. The neighborhood was not the nicest, but it was proximate to the Anaheim convention center and Disneyland. It was significantly cheaper than the (significantly nicer) hotels a couple miles up the road. Which I would have stayed at had they not been sold it with all the convention madness.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>To qualify, this rating is in the context of what a Motel 6 is: a functional, cost effective lodging facility. It is not upscale or expected to come with more than the basics. In this role, it achieves what it sets out to do admirably. The people who ran the hotel were professional and cared about doing a good job for their customers. The neighborhood was not the nicest, but it was proximate to the Anaheim convention center and Disneyland. It was significantly cheaper than the (significantly nicer) hotels a couple miles up the road. Which I would have stayed at had they not been sold it with all the convention madness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r464707747-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>464707747</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>My booking</t>
+  </si>
+  <si>
+    <t>I stayed here and needed another day booked it on the motel 6 website so went to the office and signed paperwork so i can continue to stay but when i booked online i had requested 2 beds and when i recheck in they only gave the same room with a single bed so they gave away my 2 bed room that i had booked and i was still charged for 2 bed worst at accommodations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r361069524-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>361069524</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient, affordable </t>
+  </si>
+  <si>
+    <t>We stayed one night and were satisfied with our experience. The room looked pretty close to the photos (though there was NO smoke detector and a portion of the wall had a small access door at floor level that wasn't secured closed off/attached). Very affordable, clean bathroom, no toiletries beyond soap (just an FYI). Fridge and microwave both available. There was also a grassy pet area with a few agility course type pieces if you're traveling with furry companions. We were not, but I liked that it was available... so did the dogs who had a chance to run around in there.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r328808882-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>328808882</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>SUBSTANDARD</t>
+  </si>
+  <si>
+    <t>This place has been a: Sandman inn, a Travel Lodge, and receintly an Econo Lodge. Stayed here 2x's receintly. The rooms are newer, and quite large. even though its been a Motel 6 LESS THAN 1 year, it already looks tired.  also, It is NOT CONSISTANT with the "motel 6" brand. The rooms have a pretend-feel. Maybe the smell in the lobby ruined it for me? (smelled like layers and layers of Curry)  and that THICK CURRY , smell permeated into the rooms. I liked the $65-$78 rates I payed, but the other guests appeared "unsavory" at its in a horrid area. And parking is lacking. Their idea of "morning coffee"?  it not what you would think it would be.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This place has been a: Sandman inn, a Travel Lodge, and receintly an Econo Lodge. Stayed here 2x's receintly. The rooms are newer, and quite large. even though its been a Motel 6 LESS THAN 1 year, it already looks tired.  also, It is NOT CONSISTANT with the "motel 6" brand. The rooms have a pretend-feel. Maybe the smell in the lobby ruined it for me? (smelled like layers and layers of Curry)  and that THICK CURRY , smell permeated into the rooms. I liked the $65-$78 rates I payed, but the other guests appeared "unsavory" at its in a horrid area. And parking is lacking. Their idea of "morning coffee"?  it not what you would think it would be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r313798217-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>313798217</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>From the ice machine to the tv, nothing works here!</t>
+  </si>
+  <si>
+    <t>I stayed her twice in the last month or so, will be my last time. Hotel is cheap, but nothing works. From the first second I got there, and went to get some ice from the machine I saw outside to make some cold drinks for us because it was so hot inside and out, ac didnt work at all: blew only warm air, only to find out the ice machine doesnt make ice??, had to go out to the store to buy ice...I was bitter because I had to pay almost $10 dollars per day for a double bag of ice from the gas station when the office told me the machine had been broken for some time, and I should not to expect it to be working before we checked out, so had to buy daily each of the 4 WEEKDAYS of our stay (ever heard of getting it fixed along with the AC and the TV). Oh yes and the TV on the wall would not turn on, just gave up and assumed the place is a no frills, hot ,iceless, cheap place to sleep with to entertainment so bring your own. Its no wonder why a lot of the guests are just outside hanging around leaning over the guardrailing looking at you when you walk by..they are trying to get cool cause its too hot inside and no tv to watch! The pictures of this place...I stayed her twice in the last month or so, will be my last time. Hotel is cheap, but nothing works. From the first second I got there, and went to get some ice from the machine I saw outside to make some cold drinks for us because it was so hot inside and out, ac didnt work at all: blew only warm air, only to find out the ice machine doesnt make ice??, had to go out to the store to buy ice...I was bitter because I had to pay almost $10 dollars per day for a double bag of ice from the gas station when the office told me the machine had been broken for some time, and I should not to expect it to be working before we checked out, so had to buy daily each of the 4 WEEKDAYS of our stay (ever heard of getting it fixed along with the AC and the TV). Oh yes and the TV on the wall would not turn on, just gave up and assumed the place is a no frills, hot ,iceless, cheap place to sleep with to entertainment so bring your own. Its no wonder why a lot of the guests are just outside hanging around leaning over the guardrailing looking at you when you walk by..they are trying to get cool cause its too hot inside and no tv to watch! The pictures of this place provided by management are not the what you will see, all of the rooms have hardwood floors ad the rooms look nothing like that or I would have been happy. All non-working tv's are mounted on the wall at foot of bed. Pool was dry, so no option for that...so no way to cool off here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I stayed her twice in the last month or so, will be my last time. Hotel is cheap, but nothing works. From the first second I got there, and went to get some ice from the machine I saw outside to make some cold drinks for us because it was so hot inside and out, ac didnt work at all: blew only warm air, only to find out the ice machine doesnt make ice??, had to go out to the store to buy ice...I was bitter because I had to pay almost $10 dollars per day for a double bag of ice from the gas station when the office told me the machine had been broken for some time, and I should not to expect it to be working before we checked out, so had to buy daily each of the 4 WEEKDAYS of our stay (ever heard of getting it fixed along with the AC and the TV). Oh yes and the TV on the wall would not turn on, just gave up and assumed the place is a no frills, hot ,iceless, cheap place to sleep with to entertainment so bring your own. Its no wonder why a lot of the guests are just outside hanging around leaning over the guardrailing looking at you when you walk by..they are trying to get cool cause its too hot inside and no tv to watch! The pictures of this place...I stayed her twice in the last month or so, will be my last time. Hotel is cheap, but nothing works. From the first second I got there, and went to get some ice from the machine I saw outside to make some cold drinks for us because it was so hot inside and out, ac didnt work at all: blew only warm air, only to find out the ice machine doesnt make ice??, had to go out to the store to buy ice...I was bitter because I had to pay almost $10 dollars per day for a double bag of ice from the gas station when the office told me the machine had been broken for some time, and I should not to expect it to be working before we checked out, so had to buy daily each of the 4 WEEKDAYS of our stay (ever heard of getting it fixed along with the AC and the TV). Oh yes and the TV on the wall would not turn on, just gave up and assumed the place is a no frills, hot ,iceless, cheap place to sleep with to entertainment so bring your own. Its no wonder why a lot of the guests are just outside hanging around leaning over the guardrailing looking at you when you walk by..they are trying to get cool cause its too hot inside and no tv to watch! The pictures of this place provided by management are not the what you will see, all of the rooms have hardwood floors ad the rooms look nothing like that or I would have been happy. All non-working tv's are mounted on the wall at foot of bed. Pool was dry, so no option for that...so no way to cool off here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r205884447-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>205884447</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>what was I thinking.</t>
+  </si>
+  <si>
+    <t>Ok first of all booked the stay expedia. Terrible choice. Got there only a smokers room was available. When I chose the room I chose no smoking.  But I went with it anyways. Got to the room carpet was disgusting black carpet that was suppose to be blue. Walls had what looked like mold on them which was nasty. On the wall it had been tagged by a gang. No joke. Window screen was bent to hell like it had been broken into. The shower had nasty hair all over in the bottom of it. The cups was plastic cups and one had water marks om it that looked like it had been used 15 times over. Bed was hard as a rock and sheets had not been washed thry were black. I had enough went to get a refund and the indian lady at the front desk said I had to go through expedia because i chsnged to a smoking room which i had to b3cause there was no more rooms, and went on to tell me that she couldnt give me a refund because she did not recieve a payment expedia did. Talked to five different expedia people they all tried to call her and she was not there to answer but I heard the phone ringing and she just stood there and looked at me making calls on her cell phone.. no joke. Do not stay here....Ok first of all booked the stay expedia. Terrible choice. Got there only a smokers room was available. When I chose the room I chose no smoking.  But I went with it anyways. Got to the room carpet was disgusting black carpet that was suppose to be blue. Walls had what looked like mold on them which was nasty. On the wall it had been tagged by a gang. No joke. Window screen was bent to hell like it had been broken into. The shower had nasty hair all over in the bottom of it. The cups was plastic cups and one had water marks om it that looked like it had been used 15 times over. Bed was hard as a rock and sheets had not been washed thry were black. I had enough went to get a refund and the indian lady at the front desk said I had to go through expedia because i chsnged to a smoking room which i had to b3cause there was no more rooms, and went on to tell me that she couldnt give me a refund because she did not recieve a payment expedia did. Talked to five different expedia people they all tried to call her and she was not there to answer but I heard the phone ringing and she just stood there and looked at me making calls on her cell phone.. no joke. Do not stay here. I didnt and wouldnt get paid to stay there. And do not use expedia.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ok first of all booked the stay expedia. Terrible choice. Got there only a smokers room was available. When I chose the room I chose no smoking.  But I went with it anyways. Got to the room carpet was disgusting black carpet that was suppose to be blue. Walls had what looked like mold on them which was nasty. On the wall it had been tagged by a gang. No joke. Window screen was bent to hell like it had been broken into. The shower had nasty hair all over in the bottom of it. The cups was plastic cups and one had water marks om it that looked like it had been used 15 times over. Bed was hard as a rock and sheets had not been washed thry were black. I had enough went to get a refund and the indian lady at the front desk said I had to go through expedia because i chsnged to a smoking room which i had to b3cause there was no more rooms, and went on to tell me that she couldnt give me a refund because she did not recieve a payment expedia did. Talked to five different expedia people they all tried to call her and she was not there to answer but I heard the phone ringing and she just stood there and looked at me making calls on her cell phone.. no joke. Do not stay here....Ok first of all booked the stay expedia. Terrible choice. Got there only a smokers room was available. When I chose the room I chose no smoking.  But I went with it anyways. Got to the room carpet was disgusting black carpet that was suppose to be blue. Walls had what looked like mold on them which was nasty. On the wall it had been tagged by a gang. No joke. Window screen was bent to hell like it had been broken into. The shower had nasty hair all over in the bottom of it. The cups was plastic cups and one had water marks om it that looked like it had been used 15 times over. Bed was hard as a rock and sheets had not been washed thry were black. I had enough went to get a refund and the indian lady at the front desk said I had to go through expedia because i chsnged to a smoking room which i had to b3cause there was no more rooms, and went on to tell me that she couldnt give me a refund because she did not recieve a payment expedia did. Talked to five different expedia people they all tried to call her and she was not there to answer but I heard the phone ringing and she just stood there and looked at me making calls on her cell phone.. no joke. Do not stay here. I didnt and wouldnt get paid to stay there. And do not use expedia.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r197851014-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>197851014</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Keep looking</t>
+  </si>
+  <si>
+    <t>Very disappointed, I would never stay at the Econo Lodge Inn property again. The bed is as HARD as a rock. The room is very old looking, most light switches and plugs don't work, TV, tables all have cigarette burns all over them. The 2 bed light attached to the wall were hanging half off and not working. Smoke detectors where gone, just holes in the ceiling. Toilet was loose and not bolted down. Only 1 towel was given, when I asked for more they said they were out. Paid $95 a night. NEVER AGAIN</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r185515918-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>185515918</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Good for the Price</t>
+  </si>
+  <si>
+    <t>We stayed for one night at this motel. Access was rather difficult since we had to go up the street and make a u-turn. The room was very clean and the shower was great. There was no chain on the door, although it did have a good dead bolt lock. The window was bent and it looks as if it had been broken into at one point. However, we did feel safe. We were given a lower floor room in the middle and the parking was free and good. There was free wi-fi. It was slow, but it worked. The breakfast needs to be upgraded as it's pretty much non existent. However, the service was really good. They brought us extra towels and pillows and an extra cup. The room was for a single, not double, even though the bed was a king size. There was a table with two chairs, though, and that was very convenient. I would definitely stay in this motel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We stayed for one night at this motel. Access was rather difficult since we had to go up the street and make a u-turn. The room was very clean and the shower was great. There was no chain on the door, although it did have a good dead bolt lock. The window was bent and it looks as if it had been broken into at one point. However, we did feel safe. We were given a lower floor room in the middle and the parking was free and good. There was free wi-fi. It was slow, but it worked. The breakfast needs to be upgraded as it's pretty much non existent. However, the service was really good. They brought us extra towels and pillows and an extra cup. The room was for a single, not double, even though the bed was a king size. There was a table with two chairs, though, and that was very convenient. I would definitely stay in this motel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r168383076-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>168383076</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Just Okay</t>
+  </si>
+  <si>
+    <t>My friend and I traveled to Anaheim for a concert and needed a cheap hotel close to the venue.  First thing I noticed when I got to the hotel was if you don't access it from the 22 freeway you have to make an illegal uturn further down the street to come back to the hotel.  When I went to check in I was taken back by the fact that the front desk was enclosed in glass.  All transactions had to be done through a hole in the glass.  Made me a bit nervous about the neighborhood we were in, though it didn't look that bad.  
+The room was clean but the beds were beyond uncomfortable unless you like a bed that is hard as a rock.  We had company in the bathroom in the way of a daddy long leg spider that I killed cause it freaked my friend out.  The TV was a bit dated and most of the channels were spanish but the few that were english were good.  The air conditioner worked to good, found myself actually turning it to heat in the middle of the night.
+The grounds themselves were clean and the rooms were quiet, didn't hear anything above me, whether someone was or wasn't up there I don't know but it was quiet.  Even with the freeway running behind it you didn't hear that traffic either.
+Breakfast was just blah.  They had cereals...My friend and I traveled to Anaheim for a concert and needed a cheap hotel close to the venue.  First thing I noticed when I got to the hotel was if you don't access it from the 22 freeway you have to make an illegal uturn further down the street to come back to the hotel.  When I went to check in I was taken back by the fact that the front desk was enclosed in glass.  All transactions had to be done through a hole in the glass.  Made me a bit nervous about the neighborhood we were in, though it didn't look that bad.  The room was clean but the beds were beyond uncomfortable unless you like a bed that is hard as a rock.  We had company in the bathroom in the way of a daddy long leg spider that I killed cause it freaked my friend out.  The TV was a bit dated and most of the channels were spanish but the few that were english were good.  The air conditioner worked to good, found myself actually turning it to heat in the middle of the night.The grounds themselves were clean and the rooms were quiet, didn't hear anything above me, whether someone was or wasn't up there I don't know but it was quiet.  Even with the freeway running behind it you didn't hear that traffic either.Breakfast was just blah.  They had cereals but no milk left for it.  All they had was english muffins, bread for toast, some muffins and orange and apple juice.  It was enough to tide my friend and I over until lunch.  But when I went to get some assistance for the milk and napkins (they were also out of those) i rang the bell at the front counter a couple times and no one came to help us.  I searched every cupboard and drawer in that "kitchen" and couldn't find any.  Overall would I stay here again?  Probably.  After all you get what you pay for.  The room was cheap.  It worked for us to sleep and shower.  We were to busy going to the concert and Disney to spend to much time in it anyway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>My friend and I traveled to Anaheim for a concert and needed a cheap hotel close to the venue.  First thing I noticed when I got to the hotel was if you don't access it from the 22 freeway you have to make an illegal uturn further down the street to come back to the hotel.  When I went to check in I was taken back by the fact that the front desk was enclosed in glass.  All transactions had to be done through a hole in the glass.  Made me a bit nervous about the neighborhood we were in, though it didn't look that bad.  
+The room was clean but the beds were beyond uncomfortable unless you like a bed that is hard as a rock.  We had company in the bathroom in the way of a daddy long leg spider that I killed cause it freaked my friend out.  The TV was a bit dated and most of the channels were spanish but the few that were english were good.  The air conditioner worked to good, found myself actually turning it to heat in the middle of the night.
+The grounds themselves were clean and the rooms were quiet, didn't hear anything above me, whether someone was or wasn't up there I don't know but it was quiet.  Even with the freeway running behind it you didn't hear that traffic either.
+Breakfast was just blah.  They had cereals...My friend and I traveled to Anaheim for a concert and needed a cheap hotel close to the venue.  First thing I noticed when I got to the hotel was if you don't access it from the 22 freeway you have to make an illegal uturn further down the street to come back to the hotel.  When I went to check in I was taken back by the fact that the front desk was enclosed in glass.  All transactions had to be done through a hole in the glass.  Made me a bit nervous about the neighborhood we were in, though it didn't look that bad.  The room was clean but the beds were beyond uncomfortable unless you like a bed that is hard as a rock.  We had company in the bathroom in the way of a daddy long leg spider that I killed cause it freaked my friend out.  The TV was a bit dated and most of the channels were spanish but the few that were english were good.  The air conditioner worked to good, found myself actually turning it to heat in the middle of the night.The grounds themselves were clean and the rooms were quiet, didn't hear anything above me, whether someone was or wasn't up there I don't know but it was quiet.  Even with the freeway running behind it you didn't hear that traffic either.Breakfast was just blah.  They had cereals but no milk left for it.  All they had was english muffins, bread for toast, some muffins and orange and apple juice.  It was enough to tide my friend and I over until lunch.  But when I went to get some assistance for the milk and napkins (they were also out of those) i rang the bell at the front counter a couple times and no one came to help us.  I searched every cupboard and drawer in that "kitchen" and couldn't find any.  Overall would I stay here again?  Probably.  After all you get what you pay for.  The room was cheap.  It worked for us to sleep and shower.  We were to busy going to the concert and Disney to spend to much time in it anyway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r168202967-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>168202967</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Filthy dirty outdated disgusting!!!</t>
+  </si>
+  <si>
+    <t>On site manager stayed in her room and didnt answer phone or desk bell. Breakfast was old bread, no regular coffee and no ceresl. Rooms were third world substandard. Furniture looked like they got it off a street corner. Filthy. Manager pushed our door open and told us we had to put furniture back where we found it. She got in people's faces who were out in parking lot smoking. Ice machine wax leaking do bad it was not just a safety hazard but health hazard too. Sleep in your car if this is your only choice!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r166238266-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>166238266</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>A Great Value</t>
+  </si>
+  <si>
+    <t>I booked a room here last minute because all the other lower priced hotels were not available. This particular place always has really good prices but I never realized how close to Disneyland it is. Don't get me wrong, you can't walk to the park but it is a 10-15 minute drive. Not bad when you compare the cost. 
+So check-in was very fast and friendly. I wanted to pay cash but with the $100 deposit I would have to drive to a bank, the lady at the desk gave me another option and didn't give me a hard time at all. I thought she was awesome. 
+Parking is great. To get there is a little bit of a hassle but if you know how to drive I'm sure you'll find a way. The pool was not available, which in July is more than disappointing. If this is important ask before booking as I got no explanation nor did I ask. 
+I got (according to the clerk) one of the smallest rooms in property 117. It was in no way small at all. It was very clean and had a super comfy bed. In fact as I checked out someone else was complementing the comfortable beds. Linen was crisp and clean. The AC worked very, very well! One of the coldest I've had in a long while. The shower and fridge also worked great. There was no mold or funny...I booked a room here last minute because all the other lower priced hotels were not available. This particular place always has really good prices but I never realized how close to Disneyland it is. Don't get me wrong, you can't walk to the park but it is a 10-15 minute drive. Not bad when you compare the cost. So check-in was very fast and friendly. I wanted to pay cash but with the $100 deposit I would have to drive to a bank, the lady at the desk gave me another option and didn't give me a hard time at all. I thought she was awesome. Parking is great. To get there is a little bit of a hassle but if you know how to drive I'm sure you'll find a way. The pool was not available, which in July is more than disappointing. If this is important ask before booking as I got no explanation nor did I ask. I got (according to the clerk) one of the smallest rooms in property 117. It was in no way small at all. It was very clean and had a super comfy bed. In fact as I checked out someone else was complementing the comfortable beds. Linen was crisp and clean. The AC worked very, very well! One of the coldest I've had in a long while. The shower and fridge also worked great. There was no mold or funny smells, no stains that I could see anywhere. I really have absolutely no complaints. FYI There are under no circumstances any visitors allowed in your room. I didn't have a problem with this rule but I noticed some people weren't happy about it. The issue in my opinion was handled very tactful but it could be an issue especially when a larger extended family are staying at other sites. I think this place is great and for the price can't be passed up. If you're not looking for frills this would be a great place to stay. I'm happy and will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room here last minute because all the other lower priced hotels were not available. This particular place always has really good prices but I never realized how close to Disneyland it is. Don't get me wrong, you can't walk to the park but it is a 10-15 minute drive. Not bad when you compare the cost. 
+So check-in was very fast and friendly. I wanted to pay cash but with the $100 deposit I would have to drive to a bank, the lady at the desk gave me another option and didn't give me a hard time at all. I thought she was awesome. 
+Parking is great. To get there is a little bit of a hassle but if you know how to drive I'm sure you'll find a way. The pool was not available, which in July is more than disappointing. If this is important ask before booking as I got no explanation nor did I ask. 
+I got (according to the clerk) one of the smallest rooms in property 117. It was in no way small at all. It was very clean and had a super comfy bed. In fact as I checked out someone else was complementing the comfortable beds. Linen was crisp and clean. The AC worked very, very well! One of the coldest I've had in a long while. The shower and fridge also worked great. There was no mold or funny...I booked a room here last minute because all the other lower priced hotels were not available. This particular place always has really good prices but I never realized how close to Disneyland it is. Don't get me wrong, you can't walk to the park but it is a 10-15 minute drive. Not bad when you compare the cost. So check-in was very fast and friendly. I wanted to pay cash but with the $100 deposit I would have to drive to a bank, the lady at the desk gave me another option and didn't give me a hard time at all. I thought she was awesome. Parking is great. To get there is a little bit of a hassle but if you know how to drive I'm sure you'll find a way. The pool was not available, which in July is more than disappointing. If this is important ask before booking as I got no explanation nor did I ask. I got (according to the clerk) one of the smallest rooms in property 117. It was in no way small at all. It was very clean and had a super comfy bed. In fact as I checked out someone else was complementing the comfortable beds. Linen was crisp and clean. The AC worked very, very well! One of the coldest I've had in a long while. The shower and fridge also worked great. There was no mold or funny smells, no stains that I could see anywhere. I really have absolutely no complaints. FYI There are under no circumstances any visitors allowed in your room. I didn't have a problem with this rule but I noticed some people weren't happy about it. The issue in my opinion was handled very tactful but it could be an issue especially when a larger extended family are staying at other sites. I think this place is great and for the price can't be passed up. If you're not looking for frills this would be a great place to stay. I'm happy and will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r145993982-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>145993982</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>Great stay for the price</t>
+  </si>
+  <si>
+    <t>I recently stayed here and found it very adequate. It  had all the basic amenities, although the breakfast room was locked in the morning.  However, the linens were fresh and clean.  The bathroom area looked quite new.  It had everything I wanted for a one night stay.  I would definitely recommend this place for anyone on a budget.  There was a bit of dust on the chairs and table which appeared to be older.  It was a quiet location, very satisfactory.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r145554781-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>145554781</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>just ok room, but service was great</t>
+  </si>
+  <si>
+    <t>you get what you pay for. econo lodge right off the freeway in so cal, not exactly pretty. the driveway as very difficult to get into, if you blink you miss it. that being said, the gentleman who works on weekends was awesome. He went out of his way to replace the tv in our room that was not working. (we werent going to be in the room much, but my husband really wanted to know he had a working tv to watch.) He made sure our telephone worked, when i got locked out of our room, even though my id was in my room, he remembered who i was and issued me a new key. over sleeping our alarms, we rushed to beat the late check out charges, jumped in the CLEAN shower to find a shower head installed high enough that a 6 foot tall person could enjoy it! being over an hour past check out, the manager only charged me the first late hour,MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>you get what you pay for. econo lodge right off the freeway in so cal, not exactly pretty. the driveway as very difficult to get into, if you blink you miss it. that being said, the gentleman who works on weekends was awesome. He went out of his way to replace the tv in our room that was not working. (we werent going to be in the room much, but my husband really wanted to know he had a working tv to watch.) He made sure our telephone worked, when i got locked out of our room, even though my id was in my room, he remembered who i was and issued me a new key. over sleeping our alarms, we rushed to beat the late check out charges, jumped in the CLEAN shower to find a shower head installed high enough that a 6 foot tall person could enjoy it! being over an hour past check out, the manager only charged me the first late hour,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r143876187-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>143876187</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I was desperate and this was the only room available in the area (which should have told me something).Front desk clerk was polite - check in was painless.  Room was scary- old couch that looked like it had been on the trash heap.  The handles on the sink were installed backwards.  TV did not work.  Bedspread was tattered and I was afraid to sit on it.  The sheets were clean thankfully.Positives - low cost, the floors and bathroom were clean, and it was a very quiet room despite the hotel being completely full.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r119961310-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>119961310</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Could have been better!</t>
+  </si>
+  <si>
+    <t>Check in was easy, and arranging billing for the two different "stays" I needed to document went well too. I had booked a jacuzzi suite believing this would mean a roomier place. Don't be fooled! The jacuzzi room has no place to hang up any clothes, no desk with chair, and a poorly lit mirror over the tiny bathroom sink. If one needs a well lit image of themselves while dressing or applying make-up you need to do this while standing in the jacuzzi tub.The post I read when making reservations online indicate the pooll was closed, so I had no expectations. However, it also indicated wi-fi. This was a joke, as the two nodes they had were difficult to impossible to access.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Check in was easy, and arranging billing for the two different "stays" I needed to document went well too. I had booked a jacuzzi suite believing this would mean a roomier place. Don't be fooled! The jacuzzi room has no place to hang up any clothes, no desk with chair, and a poorly lit mirror over the tiny bathroom sink. If one needs a well lit image of themselves while dressing or applying make-up you need to do this while standing in the jacuzzi tub.The post I read when making reservations online indicate the pooll was closed, so I had no expectations. However, it also indicated wi-fi. This was a joke, as the two nodes they had were difficult to impossible to access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r119574441-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>119574441</t>
+  </si>
+  <si>
+    <t>10/21/2011</t>
+  </si>
+  <si>
+    <t>Rooms looks nice, HOWEVER, upon closer inspection they are not.</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for 1 night during our stay in socal. We arrived about 930pm. Check in was quick and easy. Walking into the room we felt nicely surprised. The room was pretty spacious and furnishings were nice. HOWEVER, while looking for the light switch to 1 of the lights above the dresser we discovered a used condom. Disgusting!!...this probably should have been expected due to the prevalence of prostitutes walking around this neighborhood. Our bed had torn fitted sheet and the comforter had dried white stains on it. On the plus side, the A/C worked really well and the bed was pretty comfy. The micro and fridge were unplugged so we had to pull them out to plug them in. Overall, the rooms served its main purposed...sleep. would not recommend, especially to anyone traveling with children.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for 1 night during our stay in socal. We arrived about 930pm. Check in was quick and easy. Walking into the room we felt nicely surprised. The room was pretty spacious and furnishings were nice. HOWEVER, while looking for the light switch to 1 of the lights above the dresser we discovered a used condom. Disgusting!!...this probably should have been expected due to the prevalence of prostitutes walking around this neighborhood. Our bed had torn fitted sheet and the comforter had dried white stains on it. On the plus side, the A/C worked really well and the bed was pretty comfy. The micro and fridge were unplugged so we had to pull them out to plug them in. Overall, the rooms served its main purposed...sleep. would not recommend, especially to anyone traveling with children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r103088496-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>103088496</t>
+  </si>
+  <si>
+    <t>04/06/2011</t>
+  </si>
+  <si>
+    <t>Updated Review! March 2011</t>
+  </si>
+  <si>
+    <t>To start off, this was both a good and bad hotel. It was not TERRIBLE as others are saying.
+Lets start with the good.
+-Check is was friendly and quick
+-Room was big, big selection of non-smoking rooms
+-Breakfast had a selection of Honey nut cheerios, cinnimon toast crunch, and lucky charms, Minute maid juice, coffee, pastries, and bagels. They had butter and milk for us.
+-The rooms come with a mini fridge and microwave.
+-Big parking lot
+-Bed was comfortable
+-The walls were thick so we could not hear the cars of the freeway right next to us at all!
+-10 minutes from disneyland, while passing a target, Mcdonalds, carls jr, taco bell, and chase ect.
+Their high speed wifi was  high speed
+Negative
+-The tv was crap! I only tried to watch it once, the channels didnt work.
+- The remote control buttons were broken
+- We had a broken table in pieces in our room that they didnt bother to take out.
+- The light switches are difficult
+-The bathroom lights were very dim
+-  Getting into the hotel is a mission! There is no left turn, we had to illegal U-turn to avoid driving a mile for a legal one.
+- The pool is down even though its 90 degrees
+- you only get one room key
+- The microwave and fridge are left unplugged for you. We had to pull out both the microwave and...To start off, this was both a good and bad hotel. It was not TERRIBLE as others are saying.Lets start with the good.-Check is was friendly and quick-Room was big, big selection of non-smoking rooms-Breakfast had a selection of Honey nut cheerios, cinnimon toast crunch, and lucky charms, Minute maid juice, coffee, pastries, and bagels. They had butter and milk for us.-The rooms come with a mini fridge and microwave.-Big parking lot-Bed was comfortable-The walls were thick so we could not hear the cars of the freeway right next to us at all!-10 minutes from disneyland, while passing a target, Mcdonalds, carls jr, taco bell, and chase ect.Their high speed wifi was  high speedNegative-The tv was crap! I only tried to watch it once, the channels didnt work.- The remote control buttons were broken- We had a broken table in pieces in our room that they didnt bother to take out.- The light switches are difficult-The bathroom lights were very dim-  Getting into the hotel is a mission! There is no left turn, we had to illegal U-turn to avoid driving a mile for a legal one.- The pool is down even though its 90 degrees- you only get one room key- The microwave and fridge are left unplugged for you. We had to pull out both the microwave and the fridge out of its little corner and plug it in ourselves.-You have to ask for maid service to get it, im not sure if you get charged.- There is no elevatorThats all i can think of but overall, if youre just there to sleep and shower its a perfect hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>To start off, this was both a good and bad hotel. It was not TERRIBLE as others are saying.
+Lets start with the good.
+-Check is was friendly and quick
+-Room was big, big selection of non-smoking rooms
+-Breakfast had a selection of Honey nut cheerios, cinnimon toast crunch, and lucky charms, Minute maid juice, coffee, pastries, and bagels. They had butter and milk for us.
+-The rooms come with a mini fridge and microwave.
+-Big parking lot
+-Bed was comfortable
+-The walls were thick so we could not hear the cars of the freeway right next to us at all!
+-10 minutes from disneyland, while passing a target, Mcdonalds, carls jr, taco bell, and chase ect.
+Their high speed wifi was  high speed
+Negative
+-The tv was crap! I only tried to watch it once, the channels didnt work.
+- The remote control buttons were broken
+- We had a broken table in pieces in our room that they didnt bother to take out.
+- The light switches are difficult
+-The bathroom lights were very dim
+-  Getting into the hotel is a mission! There is no left turn, we had to illegal U-turn to avoid driving a mile for a legal one.
+- The pool is down even though its 90 degrees
+- you only get one room key
+- The microwave and fridge are left unplugged for you. We had to pull out both the microwave and...To start off, this was both a good and bad hotel. It was not TERRIBLE as others are saying.Lets start with the good.-Check is was friendly and quick-Room was big, big selection of non-smoking rooms-Breakfast had a selection of Honey nut cheerios, cinnimon toast crunch, and lucky charms, Minute maid juice, coffee, pastries, and bagels. They had butter and milk for us.-The rooms come with a mini fridge and microwave.-Big parking lot-Bed was comfortable-The walls were thick so we could not hear the cars of the freeway right next to us at all!-10 minutes from disneyland, while passing a target, Mcdonalds, carls jr, taco bell, and chase ect.Their high speed wifi was  high speedNegative-The tv was crap! I only tried to watch it once, the channels didnt work.- The remote control buttons were broken- We had a broken table in pieces in our room that they didnt bother to take out.- The light switches are difficult-The bathroom lights were very dim-  Getting into the hotel is a mission! There is no left turn, we had to illegal U-turn to avoid driving a mile for a legal one.- The pool is down even though its 90 degrees- you only get one room key- The microwave and fridge are left unplugged for you. We had to pull out both the microwave and the fridge out of its little corner and plug it in ourselves.-You have to ask for maid service to get it, im not sure if you get charged.- There is no elevatorThats all i can think of but overall, if youre just there to sleep and shower its a perfect hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r56527272-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>56527272</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>Simple and clean</t>
+  </si>
+  <si>
+    <t>Was here for a convention down the street.  Rooms were simple, affordable, and clean.  I stayed for 3 nights and experienced a clean room when I returned from my meetings.   The area is a typical busy street, however, I did not hear any noise at night.   Wi-fi was good too.I also liked that I was near the Orange Block, which was full of nightlife and much different than the Disney kids traffic at other nearby restaurants.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r56044191-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>56044191</t>
+  </si>
+  <si>
+    <t>02/15/2010</t>
+  </si>
+  <si>
+    <t>Forget customer loyality...</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in 2009 on 2 separate occasions for about 5 days total.  It was cheap, safe and clean enough.  So I was expecting the same this year when I needed to stay for 7 nights, the first of a few visits I need to make this year. 
+When checking-in, I asked for a 'nicer' room due to the length of my stay and also because the hotel was empty (the parking lot being nearly empty until my last night). The man at the desk told me that times were bad and they did not purchase the new furniture that they wanted.  Being aware of the economic hardships, I understood.  
+When I got to my room, it was missing a table an chairs and one drawer of the dresser (two drawers functioning) needed repair.  The dresser top had not been cleaned, the fridge and microwave door handles were sticky and there were other issues with the room just not being clean.  The bed was fine, with no appearance of bedbugs and very nice bedding, so I decided to rough it out, thinking that this was the best they had to offer..  
+Due to my hours, I was never there when the rooms were being cleaned.  On my second to last day I was - and when I walked by the other rooms being cleaned (with the doors open), all were fully furnished, including tables and chairs and...I stayed at this hotel in 2009 on 2 separate occasions for about 5 days total.  It was cheap, safe and clean enough.  So I was expecting the same this year when I needed to stay for 7 nights, the first of a few visits I need to make this year. When checking-in, I asked for a 'nicer' room due to the length of my stay and also because the hotel was empty (the parking lot being nearly empty until my last night). The man at the desk told me that times were bad and they did not purchase the new furniture that they wanted.  Being aware of the economic hardships, I understood.  When I got to my room, it was missing a table an chairs and one drawer of the dresser (two drawers functioning) needed repair.  The dresser top had not been cleaned, the fridge and microwave door handles were sticky and there were other issues with the room just not being clean.  The bed was fine, with no appearance of bedbugs and very nice bedding, so I decided to rough it out, thinking that this was the best they had to offer..  Due to my hours, I was never there when the rooms were being cleaned.  On my second to last day I was - and when I walked by the other rooms being cleaned (with the doors open), all were fully furnished, including tables and chairs and no broken dressers.    I'm guessing that my room was the worst they had to offer. They have lost this customer.  I could have made a 'scene' but instead I have written to their parent organization.  They knew that I was a repeat customer (we discussed it at check-in) and yet they treated me poorly.My takeaway lesson is to never assume that the front desk is telling the truth, always demand something better and to understand that for some hotels,  cultivating repeat customers is not part of their business strategy.One other issue (not for me):  Getting in and out of this hotel is awkward.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in 2009 on 2 separate occasions for about 5 days total.  It was cheap, safe and clean enough.  So I was expecting the same this year when I needed to stay for 7 nights, the first of a few visits I need to make this year. 
+When checking-in, I asked for a 'nicer' room due to the length of my stay and also because the hotel was empty (the parking lot being nearly empty until my last night). The man at the desk told me that times were bad and they did not purchase the new furniture that they wanted.  Being aware of the economic hardships, I understood.  
+When I got to my room, it was missing a table an chairs and one drawer of the dresser (two drawers functioning) needed repair.  The dresser top had not been cleaned, the fridge and microwave door handles were sticky and there were other issues with the room just not being clean.  The bed was fine, with no appearance of bedbugs and very nice bedding, so I decided to rough it out, thinking that this was the best they had to offer..  
+Due to my hours, I was never there when the rooms were being cleaned.  On my second to last day I was - and when I walked by the other rooms being cleaned (with the doors open), all were fully furnished, including tables and chairs and...I stayed at this hotel in 2009 on 2 separate occasions for about 5 days total.  It was cheap, safe and clean enough.  So I was expecting the same this year when I needed to stay for 7 nights, the first of a few visits I need to make this year. When checking-in, I asked for a 'nicer' room due to the length of my stay and also because the hotel was empty (the parking lot being nearly empty until my last night). The man at the desk told me that times were bad and they did not purchase the new furniture that they wanted.  Being aware of the economic hardships, I understood.  When I got to my room, it was missing a table an chairs and one drawer of the dresser (two drawers functioning) needed repair.  The dresser top had not been cleaned, the fridge and microwave door handles were sticky and there were other issues with the room just not being clean.  The bed was fine, with no appearance of bedbugs and very nice bedding, so I decided to rough it out, thinking that this was the best they had to offer..  Due to my hours, I was never there when the rooms were being cleaned.  On my second to last day I was - and when I walked by the other rooms being cleaned (with the doors open), all were fully furnished, including tables and chairs and no broken dressers.    I'm guessing that my room was the worst they had to offer. They have lost this customer.  I could have made a 'scene' but instead I have written to their parent organization.  They knew that I was a repeat customer (we discussed it at check-in) and yet they treated me poorly.My takeaway lesson is to never assume that the front desk is telling the truth, always demand something better and to understand that for some hotels,  cultivating repeat customers is not part of their business strategy.One other issue (not for me):  Getting in and out of this hotel is awkward.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r28726972-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>28726972</t>
+  </si>
+  <si>
+    <t>04/24/2009</t>
+  </si>
+  <si>
+    <t>Must be working to improve their image...my stay was great!</t>
+  </si>
+  <si>
+    <t>I recently had the opportunity to stay at this hotel while I was planning to attend an evening performance of  "The Glory of Easter" at the Crystal Cathedral in Garden Grove.  I live in Los Angeles but I wanted to spend the night and attend early morning Easter services at the Cathedral without driving back and forth to LA.   For the amount that you paid, myself included, I really don't know what there is to gripe about.  My A/C and heater was great.  The TV worked, my phone worked (wake up call included) there was a coffee brewer, with coffee, in the room as well as a microwave and mini refrigerator.  The room was clean!' clean sheets on the bed and there were no bed bugs/mites (I checked).  The bathroom were sanitized and I was supplied with as many towels by the room cleaning lady as I needed.  The man that checked me in was most pleasant and helpful in quickly checking me in and finding the phone numbers of a couple eating places for me.  It was to cold for the pool and to lay out in the sun but I could have if I wanted to.  You know...the experience was so favorable that I booked a second night just rest, catch up on some reading, and watch a little TV then go out to a fancy feast at the Red Lobster (only five minutes away).  After all the...I recently had the opportunity to stay at this hotel while I was planning to attend an evening performance of  "The Glory of Easter" at the Crystal Cathedral in Garden Grove.  I live in Los Angeles but I wanted to spend the night and attend early morning Easter services at the Cathedral without driving back and forth to LA.   For the amount that you paid, myself included, I really don't know what there is to gripe about.  My A/C and heater was great.  The TV worked, my phone worked (wake up call included) there was a coffee brewer, with coffee, in the room as well as a microwave and mini refrigerator.  The room was clean!' clean sheets on the bed and there were no bed bugs/mites (I checked).  The bathroom were sanitized and I was supplied with as many towels by the room cleaning lady as I needed.  The man that checked me in was most pleasant and helpful in quickly checking me in and finding the phone numbers of a couple eating places for me.  It was to cold for the pool and to lay out in the sun but I could have if I wanted to.  You know...the experience was so favorable that I booked a second night just rest, catch up on some reading, and watch a little TV then go out to a fancy feast at the Red Lobster (only five minutes away).  After all the price was less for two nights here at this Econo Lodge Inn than it might of been for one night at most hotels elsewhere.  It exceeded my expectations.  After all the name of the place is Econo Lodge. &lt;smile&gt;MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>I recently had the opportunity to stay at this hotel while I was planning to attend an evening performance of  "The Glory of Easter" at the Crystal Cathedral in Garden Grove.  I live in Los Angeles but I wanted to spend the night and attend early morning Easter services at the Cathedral without driving back and forth to LA.   For the amount that you paid, myself included, I really don't know what there is to gripe about.  My A/C and heater was great.  The TV worked, my phone worked (wake up call included) there was a coffee brewer, with coffee, in the room as well as a microwave and mini refrigerator.  The room was clean!' clean sheets on the bed and there were no bed bugs/mites (I checked).  The bathroom were sanitized and I was supplied with as many towels by the room cleaning lady as I needed.  The man that checked me in was most pleasant and helpful in quickly checking me in and finding the phone numbers of a couple eating places for me.  It was to cold for the pool and to lay out in the sun but I could have if I wanted to.  You know...the experience was so favorable that I booked a second night just rest, catch up on some reading, and watch a little TV then go out to a fancy feast at the Red Lobster (only five minutes away).  After all the...I recently had the opportunity to stay at this hotel while I was planning to attend an evening performance of  "The Glory of Easter" at the Crystal Cathedral in Garden Grove.  I live in Los Angeles but I wanted to spend the night and attend early morning Easter services at the Cathedral without driving back and forth to LA.   For the amount that you paid, myself included, I really don't know what there is to gripe about.  My A/C and heater was great.  The TV worked, my phone worked (wake up call included) there was a coffee brewer, with coffee, in the room as well as a microwave and mini refrigerator.  The room was clean!' clean sheets on the bed and there were no bed bugs/mites (I checked).  The bathroom were sanitized and I was supplied with as many towels by the room cleaning lady as I needed.  The man that checked me in was most pleasant and helpful in quickly checking me in and finding the phone numbers of a couple eating places for me.  It was to cold for the pool and to lay out in the sun but I could have if I wanted to.  You know...the experience was so favorable that I booked a second night just rest, catch up on some reading, and watch a little TV then go out to a fancy feast at the Red Lobster (only five minutes away).  After all the price was less for two nights here at this Econo Lodge Inn than it might of been for one night at most hotels elsewhere.  It exceeded my expectations.  After all the name of the place is Econo Lodge. &lt;smile&gt;More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r12830583-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>12830583</t>
+  </si>
+  <si>
+    <t>01/20/2008</t>
+  </si>
+  <si>
+    <t>The best for the price</t>
+  </si>
+  <si>
+    <t>This hotel was alittle shabby, but if you plan on spending all your time doing the tourist things in Anaheim, LA, Long Beach, etc and use this just to sleep in and shower, you cant beat the price. Usually under $70 a night, wow  is all i can say, everything i needed was there, the service was great, and even a free continental breakfast. Stay here highly recommended for the person just wanting a bed.Thanks we had a great 3 day weekend at NAMM 2008</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r8656625-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>8656625</t>
+  </si>
+  <si>
+    <t>09/03/2007</t>
+  </si>
+  <si>
+    <t>Stay was great!!!</t>
+  </si>
+  <si>
+    <t>If you are not looking for something really luxuries and this is the place to stay.  Avg rates,clean and QUITE room.  Me and my wife enjoyed a great day by the pool...on a very hot day.  Great location....only couple of miles from Disneyland.  Can't beat it!!!!</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r8465213-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>8465213</t>
+  </si>
+  <si>
+    <t>08/20/2007</t>
+  </si>
+  <si>
+    <t>Do Not Stay At The Econo Lodge At Garden Grove!</t>
+  </si>
+  <si>
+    <t>Do not stay here. I'm warning you. The staff there has no clue as to what cstomer service means. Having had the education of Hospitality, I can trully say that they did not have one clue as to what "accomodating" means. The staff at the front desk was rude. They judge us and "cancelled" our reservations because we were not properly dressed. They immidiately assumed that just because my friends wore high trend hip hop clothes that we were going to cause trouble. They were very rude and irritating. I would never suggest this Econo Lodge to anyone. Stay away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r6504838-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>6504838</t>
+  </si>
+  <si>
+    <t>12/26/2006</t>
+  </si>
+  <si>
+    <t>Dirty, rude and disrespectful</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights in here December 24 to 26.  If you plan to book this hotel please keep away this or you will regret for you trip.1. Dirty 2. Bad service and disrespectful 3. Don't care customer</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r4967396-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>4967396</t>
+  </si>
+  <si>
+    <t>04/11/2006</t>
+  </si>
+  <si>
+    <t>Nightmare at the Econo Lodge..</t>
+  </si>
+  <si>
+    <t>In all the years that I have stayed at many hotels and motels, have I never been treated so disrespectful. My family an I made reservations at the Econo Lodge, Garden Grove, for 2 weeks. When we arrived, we paid for 2 weeks in advance ($700.00). Well the management, during the second day of our stay was so rude, and disrespectful towards my wife. My wife had went outside of our room, to ask the maid for some more clean towels, and while she was talking to the maid, the lady in the office, the management or the owner, not sure, comes up to my wife, yelling at her and telling her not to talk to the maid at all. If my wife needed some more towels, she was told to simply hand the maid the dirty items, to be exchanged, not saying one word to the maid, and she would know what my wife wanted. How rude and disrespectful, and this hotel is supposed to be AAA approved. I don't see how. My wife was also told, again by the lady in the office, I don't know if she is the managment or the owner, but she is one of the rudest people I have ever came accross in any of the hotels/ motels we ahave ever stayed at... On or about the fifth day of our stay, my wife stepped out of our room, to smoke a cigarette,...In all the years that I have stayed at many hotels and motels, have I never been treated so disrespectful. My family an I made reservations at the Econo Lodge, Garden Grove, for 2 weeks. When we arrived, we paid for 2 weeks in advance ($700.00). Well the management, during the second day of our stay was so rude, and disrespectful towards my wife. My wife had went outside of our room, to ask the maid for some more clean towels, and while she was talking to the maid, the lady in the office, the management or the owner, not sure, comes up to my wife, yelling at her and telling her not to talk to the maid at all. If my wife needed some more towels, she was told to simply hand the maid the dirty items, to be exchanged, not saying one word to the maid, and she would know what my wife wanted. How rude and disrespectful, and this hotel is supposed to be AAA approved. I don't see how. My wife was also told, again by the lady in the office, I don't know if she is the managment or the owner, but she is one of the rudest people I have ever came accross in any of the hotels/ motels we ahave ever stayed at... On or about the fifth day of our stay, my wife stepped out of our room, to smoke a cigarette, our room is on the second floor. My wife overheard the some lady downstairs, with her baby in a stroller, asking the lady in the office, where she could buy some milk for her baby, and since she was walking, she wanted a place the was withing walking distance. The lady in the office was giving her directions to a small store that was about 2 or 3 blocks away. My wife overheard where she was directing the lady with the baby, and told the lady with the baby, that there was a mother and daughter store, right accross the street from the Econo Lodge. After the lady with the baby in the stroler left, the lady in the office, once again went up to my wife, yeling at her and telling her, that she could not talk to any of the customers in the hotel. Wait a minute, I thought we were customers, as well. And since we did pay ($700.00 cash) for our 2 weeks stay. This lady in the office was once again out of line. And I feel that she should have never been allowed to work in or own, if she does, any Hotel/ Motel anywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>In all the years that I have stayed at many hotels and motels, have I never been treated so disrespectful. My family an I made reservations at the Econo Lodge, Garden Grove, for 2 weeks. When we arrived, we paid for 2 weeks in advance ($700.00). Well the management, during the second day of our stay was so rude, and disrespectful towards my wife. My wife had went outside of our room, to ask the maid for some more clean towels, and while she was talking to the maid, the lady in the office, the management or the owner, not sure, comes up to my wife, yelling at her and telling her not to talk to the maid at all. If my wife needed some more towels, she was told to simply hand the maid the dirty items, to be exchanged, not saying one word to the maid, and she would know what my wife wanted. How rude and disrespectful, and this hotel is supposed to be AAA approved. I don't see how. My wife was also told, again by the lady in the office, I don't know if she is the managment or the owner, but she is one of the rudest people I have ever came accross in any of the hotels/ motels we ahave ever stayed at... On or about the fifth day of our stay, my wife stepped out of our room, to smoke a cigarette,...In all the years that I have stayed at many hotels and motels, have I never been treated so disrespectful. My family an I made reservations at the Econo Lodge, Garden Grove, for 2 weeks. When we arrived, we paid for 2 weeks in advance ($700.00). Well the management, during the second day of our stay was so rude, and disrespectful towards my wife. My wife had went outside of our room, to ask the maid for some more clean towels, and while she was talking to the maid, the lady in the office, the management or the owner, not sure, comes up to my wife, yelling at her and telling her not to talk to the maid at all. If my wife needed some more towels, she was told to simply hand the maid the dirty items, to be exchanged, not saying one word to the maid, and she would know what my wife wanted. How rude and disrespectful, and this hotel is supposed to be AAA approved. I don't see how. My wife was also told, again by the lady in the office, I don't know if she is the managment or the owner, but she is one of the rudest people I have ever came accross in any of the hotels/ motels we ahave ever stayed at... On or about the fifth day of our stay, my wife stepped out of our room, to smoke a cigarette, our room is on the second floor. My wife overheard the some lady downstairs, with her baby in a stroller, asking the lady in the office, where she could buy some milk for her baby, and since she was walking, she wanted a place the was withing walking distance. The lady in the office was giving her directions to a small store that was about 2 or 3 blocks away. My wife overheard where she was directing the lady with the baby, and told the lady with the baby, that there was a mother and daughter store, right accross the street from the Econo Lodge. After the lady with the baby in the stroler left, the lady in the office, once again went up to my wife, yeling at her and telling her, that she could not talk to any of the customers in the hotel. Wait a minute, I thought we were customers, as well. And since we did pay ($700.00 cash) for our 2 weeks stay. This lady in the office was once again out of line. And I feel that she should have never been allowed to work in or own, if she does, any Hotel/ Motel anywhere.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1213,1660 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11569</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_532.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_532.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>msagar20162017</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r466649486-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>To qualify, this rating is in the context of what a Motel 6 is: a functional, cost effective lodging facility. It is not upscale or expected to come with more than the basics. In this role, it achieves what it sets out to do admirably. The people who ran the hotel were professional and cared about doing a good job for their customers. The neighborhood was not the nicest, but it was proximate to the Anaheim convention center and Disneyland. It was significantly cheaper than the (significantly nicer) hotels a couple miles up the road. Which I would have stayed at had they not been sold it with all the convention madness.More</t>
   </si>
   <si>
+    <t>jacsonl286</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r464707747-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>RarBuddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r361069524-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Aerovergalineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r328808882-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>This place has been a: Sandman inn, a Travel Lodge, and receintly an Econo Lodge. Stayed here 2x's receintly. The rooms are newer, and quite large. even though its been a Motel 6 LESS THAN 1 year, it already looks tired.  also, It is NOT CONSISTANT with the "motel 6" brand. The rooms have a pretend-feel. Maybe the smell in the lobby ruined it for me? (smelled like layers and layers of Curry)  and that THICK CURRY , smell permeated into the rooms. I liked the $65-$78 rates I payed, but the other guests appeared "unsavory" at its in a horrid area. And parking is lacking. Their idea of "morning coffee"?  it not what you would think it would be.More</t>
   </si>
   <si>
+    <t>P C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r313798217-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>I stayed her twice in the last month or so, will be my last time. Hotel is cheap, but nothing works. From the first second I got there, and went to get some ice from the machine I saw outside to make some cold drinks for us because it was so hot inside and out, ac didnt work at all: blew only warm air, only to find out the ice machine doesnt make ice??, had to go out to the store to buy ice...I was bitter because I had to pay almost $10 dollars per day for a double bag of ice from the gas station when the office told me the machine had been broken for some time, and I should not to expect it to be working before we checked out, so had to buy daily each of the 4 WEEKDAYS of our stay (ever heard of getting it fixed along with the AC and the TV). Oh yes and the TV on the wall would not turn on, just gave up and assumed the place is a no frills, hot ,iceless, cheap place to sleep with to entertainment so bring your own. Its no wonder why a lot of the guests are just outside hanging around leaning over the guardrailing looking at you when you walk by..they are trying to get cool cause its too hot inside and no tv to watch! The pictures of this place...I stayed her twice in the last month or so, will be my last time. Hotel is cheap, but nothing works. From the first second I got there, and went to get some ice from the machine I saw outside to make some cold drinks for us because it was so hot inside and out, ac didnt work at all: blew only warm air, only to find out the ice machine doesnt make ice??, had to go out to the store to buy ice...I was bitter because I had to pay almost $10 dollars per day for a double bag of ice from the gas station when the office told me the machine had been broken for some time, and I should not to expect it to be working before we checked out, so had to buy daily each of the 4 WEEKDAYS of our stay (ever heard of getting it fixed along with the AC and the TV). Oh yes and the TV on the wall would not turn on, just gave up and assumed the place is a no frills, hot ,iceless, cheap place to sleep with to entertainment so bring your own. Its no wonder why a lot of the guests are just outside hanging around leaning over the guardrailing looking at you when you walk by..they are trying to get cool cause its too hot inside and no tv to watch! The pictures of this place provided by management are not the what you will see, all of the rooms have hardwood floors ad the rooms look nothing like that or I would have been happy. All non-working tv's are mounted on the wall at foot of bed. Pool was dry, so no option for that...so no way to cool off here.More</t>
   </si>
   <si>
+    <t>Rowdy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r205884447-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>Ok first of all booked the stay expedia. Terrible choice. Got there only a smokers room was available. When I chose the room I chose no smoking.  But I went with it anyways. Got to the room carpet was disgusting black carpet that was suppose to be blue. Walls had what looked like mold on them which was nasty. On the wall it had been tagged by a gang. No joke. Window screen was bent to hell like it had been broken into. The shower had nasty hair all over in the bottom of it. The cups was plastic cups and one had water marks om it that looked like it had been used 15 times over. Bed was hard as a rock and sheets had not been washed thry were black. I had enough went to get a refund and the indian lady at the front desk said I had to go through expedia because i chsnged to a smoking room which i had to b3cause there was no more rooms, and went on to tell me that she couldnt give me a refund because she did not recieve a payment expedia did. Talked to five different expedia people they all tried to call her and she was not there to answer but I heard the phone ringing and she just stood there and looked at me making calls on her cell phone.. no joke. Do not stay here....Ok first of all booked the stay expedia. Terrible choice. Got there only a smokers room was available. When I chose the room I chose no smoking.  But I went with it anyways. Got to the room carpet was disgusting black carpet that was suppose to be blue. Walls had what looked like mold on them which was nasty. On the wall it had been tagged by a gang. No joke. Window screen was bent to hell like it had been broken into. The shower had nasty hair all over in the bottom of it. The cups was plastic cups and one had water marks om it that looked like it had been used 15 times over. Bed was hard as a rock and sheets had not been washed thry were black. I had enough went to get a refund and the indian lady at the front desk said I had to go through expedia because i chsnged to a smoking room which i had to b3cause there was no more rooms, and went on to tell me that she couldnt give me a refund because she did not recieve a payment expedia did. Talked to five different expedia people they all tried to call her and she was not there to answer but I heard the phone ringing and she just stood there and looked at me making calls on her cell phone.. no joke. Do not stay here. I didnt and wouldnt get paid to stay there. And do not use expedia.More</t>
   </si>
   <si>
+    <t>jamespurdie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r197851014-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Vegascouple56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r185515918-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -340,6 +367,9 @@
   </si>
   <si>
     <t>We stayed for one night at this motel. Access was rather difficult since we had to go up the street and make a u-turn. The room was very clean and the shower was great. There was no chain on the door, although it did have a good dead bolt lock. The window was bent and it looks as if it had been broken into at one point. However, we did feel safe. We were given a lower floor room in the middle and the parking was free and good. There was free wi-fi. It was slow, but it worked. The breakfast needs to be upgraded as it's pretty much non existent. However, the service was really good. They brought us extra towels and pillows and an extra cup. The room was for a single, not double, even though the bed was a king size. There was a table with two chairs, though, and that was very convenient. I would definitely stay in this motel again.More</t>
+  </si>
+  <si>
+    <t>Julie T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r168383076-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
@@ -369,6 +399,9 @@
 Breakfast was just blah.  They had cereals...My friend and I traveled to Anaheim for a concert and needed a cheap hotel close to the venue.  First thing I noticed when I got to the hotel was if you don't access it from the 22 freeway you have to make an illegal uturn further down the street to come back to the hotel.  When I went to check in I was taken back by the fact that the front desk was enclosed in glass.  All transactions had to be done through a hole in the glass.  Made me a bit nervous about the neighborhood we were in, though it didn't look that bad.  The room was clean but the beds were beyond uncomfortable unless you like a bed that is hard as a rock.  We had company in the bathroom in the way of a daddy long leg spider that I killed cause it freaked my friend out.  The TV was a bit dated and most of the channels were spanish but the few that were english were good.  The air conditioner worked to good, found myself actually turning it to heat in the middle of the night.The grounds themselves were clean and the rooms were quiet, didn't hear anything above me, whether someone was or wasn't up there I don't know but it was quiet.  Even with the freeway running behind it you didn't hear that traffic either.Breakfast was just blah.  They had cereals but no milk left for it.  All they had was english muffins, bread for toast, some muffins and orange and apple juice.  It was enough to tide my friend and I over until lunch.  But when I went to get some assistance for the milk and napkins (they were also out of those) i rang the bell at the front counter a couple times and no one came to help us.  I searched every cupboard and drawer in that "kitchen" and couldn't find any.  Overall would I stay here again?  Probably.  After all you get what you pay for.  The room was cheap.  It worked for us to sleep and shower.  We were to busy going to the concert and Disney to spend to much time in it anyway.More</t>
   </si>
   <si>
+    <t>Corinne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r168202967-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
   </si>
   <si>
     <t>On site manager stayed in her room and didnt answer phone or desk bell. Breakfast was old bread, no regular coffee and no ceresl. Rooms were third world substandard. Furniture looked like they got it off a street corner. Filthy. Manager pushed our door open and told us we had to put furniture back where we found it. She got in people's faces who were out in parking lot smoking. Ice machine wax leaking do bad it was not just a safety hazard but health hazard too. Sleep in your car if this is your only choice!</t>
+  </si>
+  <si>
+    <t>559MoM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r166238266-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
@@ -408,6 +444,9 @@
 I got (according to the clerk) one of the smallest rooms in property 117. It was in no way small at all. It was very clean and had a super comfy bed. In fact as I checked out someone else was complementing the comfortable beds. Linen was crisp and clean. The AC worked very, very well! One of the coldest I've had in a long while. The shower and fridge also worked great. There was no mold or funny...I booked a room here last minute because all the other lower priced hotels were not available. This particular place always has really good prices but I never realized how close to Disneyland it is. Don't get me wrong, you can't walk to the park but it is a 10-15 minute drive. Not bad when you compare the cost. So check-in was very fast and friendly. I wanted to pay cash but with the $100 deposit I would have to drive to a bank, the lady at the desk gave me another option and didn't give me a hard time at all. I thought she was awesome. Parking is great. To get there is a little bit of a hassle but if you know how to drive I'm sure you'll find a way. The pool was not available, which in July is more than disappointing. If this is important ask before booking as I got no explanation nor did I ask. I got (according to the clerk) one of the smallest rooms in property 117. It was in no way small at all. It was very clean and had a super comfy bed. In fact as I checked out someone else was complementing the comfortable beds. Linen was crisp and clean. The AC worked very, very well! One of the coldest I've had in a long while. The shower and fridge also worked great. There was no mold or funny smells, no stains that I could see anywhere. I really have absolutely no complaints. FYI There are under no circumstances any visitors allowed in your room. I didn't have a problem with this rule but I noticed some people weren't happy about it. The issue in my opinion was handled very tactful but it could be an issue especially when a larger extended family are staying at other sites. I think this place is great and for the price can't be passed up. If you're not looking for frills this would be a great place to stay. I'm happy and will return.More</t>
   </si>
   <si>
+    <t>Suze4843</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r145993982-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>jillybear728</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r145554781-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
     <t>you get what you pay for. econo lodge right off the freeway in so cal, not exactly pretty. the driveway as very difficult to get into, if you blink you miss it. that being said, the gentleman who works on weekends was awesome. He went out of his way to replace the tv in our room that was not working. (we werent going to be in the room much, but my husband really wanted to know he had a working tv to watch.) He made sure our telephone worked, when i got locked out of our room, even though my id was in my room, he remembered who i was and issued me a new key. over sleeping our alarms, we rushed to beat the late check out charges, jumped in the CLEAN shower to find a shower head installed high enough that a 6 foot tall person could enjoy it! being over an hour past check out, the manager only charged me the first late hour,More</t>
   </si>
   <si>
+    <t>SuzfromTex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r143876187-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>I was desperate and this was the only room available in the area (which should have told me something).Front desk clerk was polite - check in was painless.  Room was scary- old couch that looked like it had been on the trash heap.  The handles on the sink were installed backwards.  TV did not work.  Bedspread was tattered and I was afraid to sit on it.  The sheets were clean thankfully.Positives - low cost, the floors and bathroom were clean, and it was a very quiet room despite the hotel being completely full.</t>
   </si>
   <si>
+    <t>tmgreen777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r119961310-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>Check in was easy, and arranging billing for the two different "stays" I needed to document went well too. I had booked a jacuzzi suite believing this would mean a roomier place. Don't be fooled! The jacuzzi room has no place to hang up any clothes, no desk with chair, and a poorly lit mirror over the tiny bathroom sink. If one needs a well lit image of themselves while dressing or applying make-up you need to do this while standing in the jacuzzi tub.The post I read when making reservations online indicate the pooll was closed, so I had no expectations. However, it also indicated wi-fi. This was a joke, as the two nodes they had were difficult to impossible to access.More</t>
   </si>
   <si>
+    <t>mguerra602</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r119574441-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -502,6 +553,9 @@
   </si>
   <si>
     <t>We needed a place to stay for 1 night during our stay in socal. We arrived about 930pm. Check in was quick and easy. Walking into the room we felt nicely surprised. The room was pretty spacious and furnishings were nice. HOWEVER, while looking for the light switch to 1 of the lights above the dresser we discovered a used condom. Disgusting!!...this probably should have been expected due to the prevalence of prostitutes walking around this neighborhood. Our bed had torn fitted sheet and the comforter had dried white stains on it. On the plus side, the A/C worked really well and the bed was pretty comfy. The micro and fridge were unplugged so we had to pull them out to plug them in. Overall, the rooms served its main purposed...sleep. would not recommend, especially to anyone traveling with children.More</t>
+  </si>
+  <si>
+    <t>dg9008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r103088496-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
@@ -565,6 +619,9 @@
 - The microwave and fridge are left unplugged for you. We had to pull out both the microwave and...To start off, this was both a good and bad hotel. It was not TERRIBLE as others are saying.Lets start with the good.-Check is was friendly and quick-Room was big, big selection of non-smoking rooms-Breakfast had a selection of Honey nut cheerios, cinnimon toast crunch, and lucky charms, Minute maid juice, coffee, pastries, and bagels. They had butter and milk for us.-The rooms come with a mini fridge and microwave.-Big parking lot-Bed was comfortable-The walls were thick so we could not hear the cars of the freeway right next to us at all!-10 minutes from disneyland, while passing a target, Mcdonalds, carls jr, taco bell, and chase ect.Their high speed wifi was  high speedNegative-The tv was crap! I only tried to watch it once, the channels didnt work.- The remote control buttons were broken- We had a broken table in pieces in our room that they didnt bother to take out.- The light switches are difficult-The bathroom lights were very dim-  Getting into the hotel is a mission! There is no left turn, we had to illegal U-turn to avoid driving a mile for a legal one.- The pool is down even though its 90 degrees- you only get one room key- The microwave and fridge are left unplugged for you. We had to pull out both the microwave and the fridge out of its little corner and plug it in ourselves.-You have to ask for maid service to get it, im not sure if you get charged.- There is no elevatorThats all i can think of but overall, if youre just there to sleep and shower its a perfect hotel.More</t>
   </si>
   <si>
+    <t>Victor-05663</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r56527272-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -581,6 +638,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>GarySFBCN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r56044191-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
@@ -607,6 +667,9 @@
 Due to my hours, I was never there when the rooms were being cleaned.  On my second to last day I was - and when I walked by the other rooms being cleaned (with the doors open), all were fully furnished, including tables and chairs and...I stayed at this hotel in 2009 on 2 separate occasions for about 5 days total.  It was cheap, safe and clean enough.  So I was expecting the same this year when I needed to stay for 7 nights, the first of a few visits I need to make this year. When checking-in, I asked for a 'nicer' room due to the length of my stay and also because the hotel was empty (the parking lot being nearly empty until my last night). The man at the desk told me that times were bad and they did not purchase the new furniture that they wanted.  Being aware of the economic hardships, I understood.  When I got to my room, it was missing a table an chairs and one drawer of the dresser (two drawers functioning) needed repair.  The dresser top had not been cleaned, the fridge and microwave door handles were sticky and there were other issues with the room just not being clean.  The bed was fine, with no appearance of bedbugs and very nice bedding, so I decided to rough it out, thinking that this was the best they had to offer..  Due to my hours, I was never there when the rooms were being cleaned.  On my second to last day I was - and when I walked by the other rooms being cleaned (with the doors open), all were fully furnished, including tables and chairs and no broken dressers.    I'm guessing that my room was the worst they had to offer. They have lost this customer.  I could have made a 'scene' but instead I have written to their parent organization.  They knew that I was a repeat customer (we discussed it at check-in) and yet they treated me poorly.My takeaway lesson is to never assume that the front desk is telling the truth, always demand something better and to understand that for some hotels,  cultivating repeat customers is not part of their business strategy.One other issue (not for me):  Getting in and out of this hotel is awkward.More</t>
   </si>
   <si>
+    <t>Travelin_Man_30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r28726972-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -628,6 +691,9 @@
     <t>I recently had the opportunity to stay at this hotel while I was planning to attend an evening performance of  "The Glory of Easter" at the Crystal Cathedral in Garden Grove.  I live in Los Angeles but I wanted to spend the night and attend early morning Easter services at the Cathedral without driving back and forth to LA.   For the amount that you paid, myself included, I really don't know what there is to gripe about.  My A/C and heater was great.  The TV worked, my phone worked (wake up call included) there was a coffee brewer, with coffee, in the room as well as a microwave and mini refrigerator.  The room was clean!' clean sheets on the bed and there were no bed bugs/mites (I checked).  The bathroom were sanitized and I was supplied with as many towels by the room cleaning lady as I needed.  The man that checked me in was most pleasant and helpful in quickly checking me in and finding the phone numbers of a couple eating places for me.  It was to cold for the pool and to lay out in the sun but I could have if I wanted to.  You know...the experience was so favorable that I booked a second night just rest, catch up on some reading, and watch a little TV then go out to a fancy feast at the Red Lobster (only five minutes away).  After all the...I recently had the opportunity to stay at this hotel while I was planning to attend an evening performance of  "The Glory of Easter" at the Crystal Cathedral in Garden Grove.  I live in Los Angeles but I wanted to spend the night and attend early morning Easter services at the Cathedral without driving back and forth to LA.   For the amount that you paid, myself included, I really don't know what there is to gripe about.  My A/C and heater was great.  The TV worked, my phone worked (wake up call included) there was a coffee brewer, with coffee, in the room as well as a microwave and mini refrigerator.  The room was clean!' clean sheets on the bed and there were no bed bugs/mites (I checked).  The bathroom were sanitized and I was supplied with as many towels by the room cleaning lady as I needed.  The man that checked me in was most pleasant and helpful in quickly checking me in and finding the phone numbers of a couple eating places for me.  It was to cold for the pool and to lay out in the sun but I could have if I wanted to.  You know...the experience was so favorable that I booked a second night just rest, catch up on some reading, and watch a little TV then go out to a fancy feast at the Red Lobster (only five minutes away).  After all the price was less for two nights here at this Econo Lodge Inn than it might of been for one night at most hotels elsewhere.  It exceeded my expectations.  After all the name of the place is Econo Lodge. &lt;smile&gt;More</t>
   </si>
   <si>
+    <t>mellyfrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r12830583-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -646,6 +712,9 @@
     <t>January 2008</t>
   </si>
   <si>
+    <t>jig777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r8656625-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -664,6 +733,9 @@
     <t>September 2007</t>
   </si>
   <si>
+    <t>MiracleAmor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r8465213-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -679,6 +751,9 @@
     <t>Do not stay here. I'm warning you. The staff there has no clue as to what cstomer service means. Having had the education of Hospitality, I can trully say that they did not have one clue as to what "accomodating" means. The staff at the front desk was rude. They judge us and "cancelled" our reservations because we were not properly dressed. They immidiately assumed that just because my friends wore high trend hip hop clothes that we were going to cause trouble. They were very rude and irritating. I would never suggest this Econo Lodge to anyone. Stay away.</t>
   </si>
   <si>
+    <t>genele3535</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r6504838-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -695,6 +770,9 @@
   </si>
   <si>
     <t>November 2006</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d502116-r4967396-Motel_6_Garden_Grove-Garden_Grove_California.html</t>
@@ -1217,43 +1295,47 @@
       <c r="A2" t="n">
         <v>11569</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1273,50 +1355,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11569</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1330,50 +1416,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11569</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1387,50 +1477,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11569</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1444,50 +1538,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11569</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1507,50 +1605,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11569</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1570,50 +1672,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11569</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1637,50 +1743,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11569</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
         <v>100</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1704,50 +1814,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11569</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1771,50 +1885,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11569</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1838,41 +1956,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11569</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1901,41 +2023,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11569</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -1964,50 +2090,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11569</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2031,50 +2161,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11569</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2098,50 +2232,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11569</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2165,50 +2303,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11569</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2232,41 +2374,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11569</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
@@ -2295,50 +2441,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11569</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2362,50 +2512,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11569</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2429,50 +2583,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11569</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2496,50 +2654,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11569</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2563,50 +2725,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11569</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2630,50 +2796,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11569</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2697,41 +2867,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11569</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -2750,50 +2924,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11569</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2811,41 +2989,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11569</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -2864,7 +3046,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
